--- a/yuanzd123/evidence.xlsx
+++ b/yuanzd123/evidence.xlsx
@@ -12,12 +12,13 @@
     <sheet name="A4" sheetId="5" r:id="rId8"/>
     <sheet name="A5" sheetId="6" r:id="rId9"/>
     <sheet name="A6" sheetId="7" r:id="rId10"/>
+    <sheet name="A8" sheetId="8" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>TeamName</t>
   </si>
@@ -55,7 +56,7 @@
     <t>juno1d5cz9wyjlkeymw22meq4c9fl7p5k5kyssuyuyg</t>
   </si>
   <si>
-    <t>uptick1vay3r32a9xwzkd2yr03t75p6lyn2wssyq9km0y</t>
+    <t>uptick1vwqum4xggtu4n72n6kvkyxafvqlhv84uzj5hal</t>
   </si>
   <si>
     <t>omniflix1d5cz9wyjlkeymw22meq4c9fl7p5k5kysmsk752</t>
@@ -115,13 +116,19 @@
     <t>gon-flixnet-1</t>
   </si>
   <si>
-    <t>804D9212465BB5CB0E577DDDEA632ACF1C0CFC530961E3AFCC854EFE9A0F09DF</t>
+    <t>61529467796754A7CB19BFF8261770E37F20618272113C18D0B4A7A52A41B7DF</t>
   </si>
   <si>
     <t>Elgafar-1</t>
   </si>
   <si>
     <t>2209CC8073558750DF883BCA3CEBF60783D952B52375C78D562B24B38AAA8A05</t>
+  </si>
+  <si>
+    <t>ibc/1F5C8CFFB36C878178B4B8E08396B4AF03411CE9C38D04E53B754D5847C19561</t>
+  </si>
+  <si>
+    <t>a8a2</t>
   </si>
 </sst>
 </file>
@@ -131,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -149,11 +156,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
@@ -313,7 +315,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -362,7 +364,7 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -371,20 +373,29 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2019,63 +2030,63 @@
       <c r="D2" t="s" s="20">
         <v>31</v>
       </c>
-      <c r="E2" s="21"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511811" footer="0.511811"/>
@@ -2094,11 +2105,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="17.8516" style="22" customWidth="1"/>
-    <col min="3" max="3" width="16" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="22" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="22" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="22" customWidth="1"/>
+    <col min="1" max="1" width="17.8516" style="21" customWidth="1"/>
+    <col min="2" max="2" width="18.0859" style="21" customWidth="1"/>
+    <col min="3" max="3" width="16" style="21" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="21" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="21" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
@@ -2204,12 +2216,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.8516" style="23" customWidth="1"/>
-    <col min="2" max="2" width="16" style="23" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="23" customWidth="1"/>
-    <col min="4" max="4" width="14.3516" style="23" customWidth="1"/>
-    <col min="5" max="5" width="12.6719" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="23" customWidth="1"/>
+    <col min="1" max="1" width="17.8516" style="22" customWidth="1"/>
+    <col min="2" max="2" width="16" style="22" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="22" customWidth="1"/>
+    <col min="4" max="4" width="14.3516" style="22" customWidth="1"/>
+    <col min="5" max="5" width="12.6719" style="22" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1">
@@ -2240,63 +2252,63 @@
       <c r="D2" t="s" s="20">
         <v>31</v>
       </c>
-      <c r="E2" s="21"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511811" footer="0.511811"/>
@@ -2305,4 +2317,105 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16" style="23" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="23" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" t="s" s="26">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>36</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/yuanzd123/evidence.xlsx
+++ b/yuanzd123/evidence.xlsx
@@ -12,13 +12,16 @@
     <sheet name="A4" sheetId="5" r:id="rId8"/>
     <sheet name="A5" sheetId="6" r:id="rId9"/>
     <sheet name="A6" sheetId="7" r:id="rId10"/>
-    <sheet name="A8" sheetId="8" r:id="rId11"/>
+    <sheet name="A7" sheetId="8" r:id="rId11"/>
+    <sheet name="A8" sheetId="9" r:id="rId12"/>
+    <sheet name="A9" sheetId="10" r:id="rId13"/>
+    <sheet name="A11" sheetId="11" r:id="rId14"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>TeamName</t>
   </si>
@@ -125,10 +128,28 @@
     <t>2209CC8073558750DF883BCA3CEBF60783D952B52375C78D562B24B38AAA8A05</t>
   </si>
   <si>
+    <t>ibc/D3D5CA2988E0AE110BE5AF3D0A0F3A7B85596E80598744C20F77CF40B4CB4809</t>
+  </si>
+  <si>
+    <t>a7flowa1</t>
+  </si>
+  <si>
     <t>ibc/1F5C8CFFB36C878178B4B8E08396B4AF03411CE9C38D04E53B754D5847C19561</t>
   </si>
   <si>
     <t>a8a2</t>
+  </si>
+  <si>
+    <t>ibc/38C83DE2ACDCD917C0FDC5507763599EE653B9F44070BD1BDA0773D6111C6E36</t>
+  </si>
+  <si>
+    <t>a9a3</t>
+  </si>
+  <si>
+    <t>ibc/2F1B0387E19BB95327384080ED95C18684CD6F59FF6206C79307A34308A35707</t>
+  </si>
+  <si>
+    <t>a11a5</t>
   </si>
 </sst>
 </file>
@@ -315,7 +336,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -396,6 +417,15 @@
     </xf>
     <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1667,6 +1697,208 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="28" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" t="s" s="26">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>40</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16" style="29" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="29" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="29" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" t="s" s="26">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>42</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E10"/>
@@ -2418,4 +2650,105 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16" style="27" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="27" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="27" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" t="s" s="26">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>38</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/yuanzd123/evidence.xlsx
+++ b/yuanzd123/evidence.xlsx
@@ -15,13 +15,15 @@
     <sheet name="A7" sheetId="8" r:id="rId11"/>
     <sheet name="A8" sheetId="9" r:id="rId12"/>
     <sheet name="A9" sheetId="10" r:id="rId13"/>
-    <sheet name="A11" sheetId="11" r:id="rId14"/>
+    <sheet name="A10" sheetId="11" r:id="rId14"/>
+    <sheet name="A11" sheetId="12" r:id="rId15"/>
+    <sheet name="A12" sheetId="13" r:id="rId16"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>TeamName</t>
   </si>
@@ -146,10 +148,22 @@
     <t>a9a3</t>
   </si>
   <si>
+    <t>ibc/B99ED005330B65C79212F64E2F5629E41776C700EEA94E1AF04EB49C223F5D2C</t>
+  </si>
+  <si>
+    <t>a10fa4</t>
+  </si>
+  <si>
     <t>ibc/2F1B0387E19BB95327384080ED95C18684CD6F59FF6206C79307A34308A35707</t>
   </si>
   <si>
     <t>a11a5</t>
+  </si>
+  <si>
+    <t>ibc/7CE2409DD571E2DA29ABE35739139D221E64B67ECC11B11BE42652C7C0C8A3F4</t>
+  </si>
+  <si>
+    <t>a12fa6</t>
   </si>
 </sst>
 </file>
@@ -336,7 +350,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -417,6 +431,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -1899,6 +1919,208 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16" style="30" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="30" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="30" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" t="s" s="26">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>44</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16" style="31" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="31" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" t="s" s="26">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>46</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E10"/>

--- a/yuanzd123/evidence.xlsx
+++ b/yuanzd123/evidence.xlsx
@@ -18,12 +18,20 @@
     <sheet name="A10" sheetId="11" r:id="rId14"/>
     <sheet name="A11" sheetId="12" r:id="rId15"/>
     <sheet name="A12" sheetId="13" r:id="rId16"/>
+    <sheet name="A13" sheetId="14" r:id="rId17"/>
+    <sheet name="A14" sheetId="15" r:id="rId18"/>
+    <sheet name="A15" sheetId="16" r:id="rId19"/>
+    <sheet name="A16" sheetId="17" r:id="rId20"/>
+    <sheet name="A17" sheetId="18" r:id="rId21"/>
+    <sheet name="A18" sheetId="19" r:id="rId22"/>
+    <sheet name="A19" sheetId="20" r:id="rId23"/>
+    <sheet name="A20" sheetId="21" r:id="rId24"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>TeamName</t>
   </si>
@@ -164,6 +172,123 @@
   </si>
   <si>
     <t>a12fa6</t>
+  </si>
+  <si>
+    <t>195556E8A946D7A09CF943766886CD01E77795676D825034108A64AF708BD69F</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>AB9B34A8DF1265875064B6DB13DE1C1479097955AE9760059434220972F1EF81</t>
+  </si>
+  <si>
+    <t>91C465B62BDFA0E2B7A5ADA0FDD5D0EC98599E46E42BA8271D4DB650079AD51B</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>52254EE600F1D964F27564F68469EFB2249C9C1D26F6FD27437627756D993EFF</t>
+  </si>
+  <si>
+    <t>7569DF9F1DBE34F9AC2AF2E5394AE0505CB01979BC915AD8CEE319692FF5D8A1</t>
+  </si>
+  <si>
+    <t>9CEFC3DE252931A4F358C31835065419709E0BA28509CA7AF89B3E4E71FE2A47</t>
+  </si>
+  <si>
+    <t>DC7D8A7E0FDB648A66AD67913AEA58E900DFE3BC760BBD2CC0C78F6115E1FFD4</t>
+  </si>
+  <si>
+    <t>58C93CF2DAAE9A70AE3119905342CBC115C52A0C4478FA938734F1103D6F4AB0</t>
+  </si>
+  <si>
+    <t>B5E3B92F4A5F7C388F6898A28D94F2166319303D20A7D106803F4FC21817DB34</t>
+  </si>
+  <si>
+    <t>E6CF6635B61ECF5181796EFC9180ACF3369CED46431436A401099F9364658C3C</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>90FAE0572FF9C7479B8BE75FF561C9B73C956A3762C8A4BDAD12CBC3372007A3</t>
+  </si>
+  <si>
+    <t>16B27E208593092C219E90ED900FDFC924F23C46A63CBAD86CF60D3A02F96292</t>
+  </si>
+  <si>
+    <t>352C2959851429085792357D3C83835236A0438073ADF48FE1A5C25D073F4E15</t>
+  </si>
+  <si>
+    <t>07925B876E36ADA1C30BC35BDB95E059B1A105A508DA7619B3B3E6D07F316B21</t>
+  </si>
+  <si>
+    <t>7594FA201B8E88856E1B03246D7ADE5C961F480887CD1771DADA6F4CC24BC61B</t>
+  </si>
+  <si>
+    <t>3A6336DF7FE0694FC6E4D475AB57775AEBA95307E35279F417638C705E86FEFE</t>
+  </si>
+  <si>
+    <t>A94D049D02502AA370AE3DAC855AAD79752FA5E206FBB86C548027202B818A24</t>
+  </si>
+  <si>
+    <t>1C76439C6C247B1BEA416239EF5CC18E8A490FD97D06871F0A9AB24BC6049DD2</t>
+  </si>
+  <si>
+    <t>A9064982BA828017784CAB6E2DA3661C531B832F1EA8EF8002AB0BF43F1962DB</t>
+  </si>
+  <si>
+    <t>D6F9F2CBA0B511DA7C6693AEFC75FC3278C52D49ED5B0FCB428A5DC0A753E136</t>
+  </si>
+  <si>
+    <t>3CD7890DB201ECB81D70905DE517A0335C302F24E36259B3E048898F977D687D</t>
+  </si>
+  <si>
+    <t>113F7681402AFBC6300A7CC1AC2D783B96E922AE40A2221E57E589F1B0B0B89B</t>
+  </si>
+  <si>
+    <t>B7BBB15C3A3F71429495C8BA0CDF0F6896646FD425E67484E9A55B036D553CE0</t>
+  </si>
+  <si>
+    <t>03D4CDAFA2F922F3A644DF86047A5720E262330327E1A46AE7462C4276F2B1CF</t>
+  </si>
+  <si>
+    <t>2D2A7E87576E1FA43736B83DD57E1EA8539FC1EB350D2F8CDAB3206D6A9D55B8</t>
+  </si>
+  <si>
+    <t>40CA50B3325DEF1C718472D87903244EA743842C81097AC1D3739B071BBA5F96</t>
+  </si>
+  <si>
+    <t>254C323D24D8C126F829FCAA718B8C0929AD23EECD4D9F56FA848D6FBD193FD1</t>
+  </si>
+  <si>
+    <t>8CA689D8F056C97C127284E5614B948D9E263907F12436E748A780658DC14342</t>
+  </si>
+  <si>
+    <t>E959B918D3A7C784530299C12C1F773F0FC1A933964C7A133FC2B290CDD7AB0A</t>
+  </si>
+  <si>
+    <t>8188B8FB8944F2102A944E96229F397241DF5AFC6CF82A54429BBB04AA480111</t>
+  </si>
+  <si>
+    <t>317D7A70E26FC847269D74EE0196111FF6373046DDBAE91F7437FDCE8216D3F0</t>
+  </si>
+  <si>
+    <t>D2CDBE774FC3722AA206DBBB45BAC692CA4A9E0CB2AEBC894A0438173857DEDA</t>
+  </si>
+  <si>
+    <t>9828E79D0397E96FDEE3AF5FF84ADB74823D55CDFE36E946296C5662D167B158</t>
+  </si>
+  <si>
+    <t>B6310B53F0FFB20922CC308B3904407C2CD5B1CB0FAED6A63CF6C133DEF7305A</t>
+  </si>
+  <si>
+    <t>224BBA7CD3AB5D3889177300D7E1892DC8730360CA9BE4A06BE8EA0B7EF7858C</t>
+  </si>
+  <si>
+    <t>59D65C7B86D24A96CE30D3B3F950FE95E0AD046E8BDEBF77DF86AE7A3B7442F0</t>
   </si>
 </sst>
 </file>
@@ -173,7 +298,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -193,6 +318,26 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="4">
@@ -350,7 +495,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -433,6 +578,54 @@
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -2121,6 +2314,684 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="35.6719" style="32" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="32" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="32" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" t="s" s="26">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>48</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" ht="17.25" customHeight="1">
+      <c r="A3" t="s" s="33">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s" s="34">
+        <v>28</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" ht="17.25" customHeight="1">
+      <c r="A4" t="s" s="33">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s" s="34">
+        <v>51</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="34">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s" s="34">
+        <v>28</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="36.3516" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="35" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" t="s" s="36">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>48</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" ht="17.25" customHeight="1">
+      <c r="A3" t="s" s="37">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s" s="34">
+        <v>51</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" ht="17.25" customHeight="1">
+      <c r="A4" t="s" s="38">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s" s="34">
+        <v>31</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="38">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s" s="34">
+        <v>51</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="36.3516" style="39" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="39" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="39" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" t="s" s="40">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>48</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" ht="17.25" customHeight="1">
+      <c r="A3" t="s" s="38">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s" s="34">
+        <v>59</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" ht="17.25" customHeight="1">
+      <c r="A4" t="s" s="38">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s" s="34">
+        <v>51</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="38">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s" s="34">
+        <v>59</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="36.3516" style="41" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="41" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="41" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" t="s" s="42">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>48</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" ht="17.25" customHeight="1">
+      <c r="A3" t="s" s="43">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s" s="34">
+        <v>59</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" ht="17.25" customHeight="1">
+      <c r="A4" t="s" s="43">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s" s="34">
+        <v>28</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="43">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s" s="34">
+        <v>59</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="36.3516" style="44" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="44" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="44" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" t="s" s="40">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>48</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" ht="17.25" customHeight="1">
+      <c r="A3" t="s" s="38">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s" s="34">
+        <v>28</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" ht="17.25" customHeight="1">
+      <c r="A4" t="s" s="37">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s" s="34">
+        <v>59</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="38">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s" s="34">
+        <v>28</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16" style="45" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="45" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="45" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" t="s" s="40">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>48</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" ht="17.25" customHeight="1">
+      <c r="A3" t="s" s="38">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s" s="34">
+        <v>31</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" ht="17.25" customHeight="1">
+      <c r="A4" t="s" s="38">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s" s="34">
+        <v>51</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="38">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s" s="34">
+        <v>31</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E10"/>
@@ -2211,6 +3082,248 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="36.3516" style="46" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="46" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="46" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" t="s" s="40">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>48</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" ht="17.25" customHeight="1">
+      <c r="A3" t="s" s="38">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s" s="34">
+        <v>28</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" ht="17.25" customHeight="1">
+      <c r="A4" t="s" s="38">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s" s="34">
+        <v>59</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="38">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s" s="34">
+        <v>51</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="38">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s" s="34">
+        <v>59</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="38">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s" s="34">
+        <v>28</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="36.3516" style="47" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="47" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="47" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" t="s" s="40">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>48</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" ht="17.25" customHeight="1">
+      <c r="A3" t="s" s="38">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s" s="34">
+        <v>51</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" ht="17.25" customHeight="1">
+      <c r="A4" t="s" s="38">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s" s="34">
+        <v>28</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="38">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s" s="34">
+        <v>31</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="38">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s" s="34">
+        <v>28</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="38">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s" s="34">
+        <v>51</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
